--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna3-Epha1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna3-Epha1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Efna3</t>
+  </si>
+  <si>
+    <t>Epha1</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Efna3</t>
-  </si>
-  <si>
-    <t>Epha1</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1204136666666667</v>
+        <v>0.3193606666666667</v>
       </c>
       <c r="H2">
-        <v>0.361241</v>
+        <v>0.958082</v>
       </c>
       <c r="I2">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="J2">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.746298666666667</v>
+        <v>5.844648666666667</v>
       </c>
       <c r="N2">
-        <v>11.238896</v>
+        <v>17.533946</v>
       </c>
       <c r="O2">
-        <v>0.2944715732214049</v>
+        <v>0.3204643139023235</v>
       </c>
       <c r="P2">
-        <v>0.294471573221405</v>
+        <v>0.3204643139023235</v>
       </c>
       <c r="Q2">
-        <v>0.4511055588817777</v>
+        <v>1.866550894619111</v>
       </c>
       <c r="R2">
-        <v>4.059950029936</v>
+        <v>16.798958051572</v>
       </c>
       <c r="S2">
-        <v>0.1520401650850331</v>
+        <v>0.255711994836445</v>
       </c>
       <c r="T2">
-        <v>0.1520401650850331</v>
+        <v>0.255711994836445</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1204136666666667</v>
+        <v>0.3193606666666667</v>
       </c>
       <c r="H3">
-        <v>0.361241</v>
+        <v>0.958082</v>
       </c>
       <c r="I3">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="J3">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>13.110785</v>
       </c>
       <c r="O3">
-        <v>0.3435171466234404</v>
+        <v>0.2396231127748354</v>
       </c>
       <c r="P3">
-        <v>0.3435171466234404</v>
+        <v>0.2396231127748355</v>
       </c>
       <c r="Q3">
-        <v>0.5262392315761111</v>
+        <v>1.395689679374445</v>
       </c>
       <c r="R3">
-        <v>4.736153084184999</v>
+        <v>12.56120711437</v>
       </c>
       <c r="S3">
-        <v>0.177363142767259</v>
+        <v>0.191205390174108</v>
       </c>
       <c r="T3">
-        <v>0.177363142767259</v>
+        <v>0.191205390174108</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1204136666666667</v>
+        <v>0.3193606666666667</v>
       </c>
       <c r="H4">
-        <v>0.361241</v>
+        <v>0.958082</v>
       </c>
       <c r="I4">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="J4">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.767576666666667</v>
+        <v>6.452372666666666</v>
       </c>
       <c r="N4">
-        <v>8.30273</v>
+        <v>19.357118</v>
       </c>
       <c r="O4">
-        <v>0.2175407589083977</v>
+        <v>0.3537860524377295</v>
       </c>
       <c r="P4">
-        <v>0.2175407589083977</v>
+        <v>0.3537860524377295</v>
       </c>
       <c r="Q4">
-        <v>0.3332540542144444</v>
+        <v>2.060634036408445</v>
       </c>
       <c r="R4">
-        <v>2.99928648793</v>
+        <v>18.545706327676</v>
       </c>
       <c r="S4">
-        <v>0.1123196121626587</v>
+        <v>0.2823008156900025</v>
       </c>
       <c r="T4">
-        <v>0.1123196121626587</v>
+        <v>0.2823008156900025</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1204136666666667</v>
+        <v>0.3193606666666667</v>
       </c>
       <c r="H5">
-        <v>0.361241</v>
+        <v>0.958082</v>
       </c>
       <c r="I5">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="J5">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.837969333333334</v>
+        <v>1.570781</v>
       </c>
       <c r="N5">
-        <v>5.513908000000001</v>
+        <v>4.712343</v>
       </c>
       <c r="O5">
-        <v>0.1444705212467569</v>
+        <v>0.08612652088511148</v>
       </c>
       <c r="P5">
-        <v>0.1444705212467569</v>
+        <v>0.0861265208851115</v>
       </c>
       <c r="Q5">
-        <v>0.2213166266475556</v>
+        <v>0.5016456673473334</v>
       </c>
       <c r="R5">
-        <v>1.991849639828</v>
+        <v>4.514811006126</v>
       </c>
       <c r="S5">
-        <v>0.07459233385411562</v>
+        <v>0.0687239842579393</v>
       </c>
       <c r="T5">
-        <v>0.07459233385411564</v>
+        <v>0.0687239842579393</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.08086966666666667</v>
+        <v>0.08086966666666666</v>
       </c>
       <c r="H6">
         <v>0.242609</v>
       </c>
       <c r="I6">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415052</v>
       </c>
       <c r="J6">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415053</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.746298666666667</v>
+        <v>5.844648666666667</v>
       </c>
       <c r="N6">
-        <v>11.238896</v>
+        <v>17.533946</v>
       </c>
       <c r="O6">
-        <v>0.2944715732214049</v>
+        <v>0.3204643139023235</v>
       </c>
       <c r="P6">
-        <v>0.294471573221405</v>
+        <v>0.3204643139023235</v>
       </c>
       <c r="Q6">
-        <v>0.3029619244071111</v>
+        <v>0.4726547894571111</v>
       </c>
       <c r="R6">
-        <v>2.726657319664</v>
+        <v>4.253893105114</v>
       </c>
       <c r="S6">
-        <v>0.1021099831168522</v>
+        <v>0.06475231906587857</v>
       </c>
       <c r="T6">
-        <v>0.1021099831168522</v>
+        <v>0.06475231906587858</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.08086966666666667</v>
+        <v>0.08086966666666666</v>
       </c>
       <c r="H7">
         <v>0.242609</v>
       </c>
       <c r="I7">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415052</v>
       </c>
       <c r="J7">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415053</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>13.110785</v>
       </c>
       <c r="O7">
-        <v>0.3435171466234404</v>
+        <v>0.2396231127748354</v>
       </c>
       <c r="P7">
-        <v>0.3435171466234404</v>
+        <v>0.2396231127748355</v>
       </c>
       <c r="Q7">
-        <v>0.3534216042294445</v>
+        <v>0.3534216042294444</v>
       </c>
       <c r="R7">
         <v>3.180794438065</v>
       </c>
       <c r="S7">
-        <v>0.1191168629906958</v>
+        <v>0.04841772260072745</v>
       </c>
       <c r="T7">
-        <v>0.1191168629906958</v>
+        <v>0.04841772260072746</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.08086966666666667</v>
+        <v>0.08086966666666666</v>
       </c>
       <c r="H8">
         <v>0.242609</v>
       </c>
       <c r="I8">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415052</v>
       </c>
       <c r="J8">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415053</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.767576666666667</v>
+        <v>6.452372666666666</v>
       </c>
       <c r="N8">
-        <v>8.30273</v>
+        <v>19.357118</v>
       </c>
       <c r="O8">
-        <v>0.2175407589083977</v>
+        <v>0.3537860524377295</v>
       </c>
       <c r="P8">
-        <v>0.2175407589083977</v>
+        <v>0.3537860524377295</v>
       </c>
       <c r="Q8">
-        <v>0.2238130025077778</v>
+        <v>0.5218012267624443</v>
       </c>
       <c r="R8">
-        <v>2.01431702257</v>
+        <v>4.696211040862</v>
       </c>
       <c r="S8">
-        <v>0.07543370987006037</v>
+        <v>0.07148523674772701</v>
       </c>
       <c r="T8">
-        <v>0.07543370987006037</v>
+        <v>0.07148523674772704</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +956,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.08086966666666667</v>
+        <v>0.08086966666666666</v>
       </c>
       <c r="H9">
         <v>0.242609</v>
       </c>
       <c r="I9">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415052</v>
       </c>
       <c r="J9">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415053</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.837969333333334</v>
+        <v>1.570781</v>
       </c>
       <c r="N9">
-        <v>5.513908000000001</v>
+        <v>4.712343</v>
       </c>
       <c r="O9">
-        <v>0.1444705212467569</v>
+        <v>0.08612652088511148</v>
       </c>
       <c r="P9">
-        <v>0.1444705212467569</v>
+        <v>0.0861265208851115</v>
       </c>
       <c r="Q9">
-        <v>0.1486359673302222</v>
+        <v>0.1270285358763333</v>
       </c>
       <c r="R9">
-        <v>1.337723705972</v>
+        <v>1.143256822887</v>
       </c>
       <c r="S9">
-        <v>0.05009611733998394</v>
+        <v>0.0174025366271722</v>
       </c>
       <c r="T9">
-        <v>0.05009611733998395</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.031934</v>
-      </c>
-      <c r="H10">
-        <v>0.095802</v>
-      </c>
-      <c r="I10">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="J10">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3.746298666666667</v>
-      </c>
-      <c r="N10">
-        <v>11.238896</v>
-      </c>
-      <c r="O10">
-        <v>0.2944715732214049</v>
-      </c>
-      <c r="P10">
-        <v>0.294471573221405</v>
-      </c>
-      <c r="Q10">
-        <v>0.1196343016213333</v>
-      </c>
-      <c r="R10">
-        <v>1.076708714592</v>
-      </c>
-      <c r="S10">
-        <v>0.04032142501951975</v>
-      </c>
-      <c r="T10">
-        <v>0.04032142501951976</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.031934</v>
-      </c>
-      <c r="H11">
-        <v>0.095802</v>
-      </c>
-      <c r="I11">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="J11">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>4.370261666666667</v>
-      </c>
-      <c r="N11">
-        <v>13.110785</v>
-      </c>
-      <c r="O11">
-        <v>0.3435171466234404</v>
-      </c>
-      <c r="P11">
-        <v>0.3435171466234404</v>
-      </c>
-      <c r="Q11">
-        <v>0.1395599360633333</v>
-      </c>
-      <c r="R11">
-        <v>1.25603942457</v>
-      </c>
-      <c r="S11">
-        <v>0.04703714086548575</v>
-      </c>
-      <c r="T11">
-        <v>0.04703714086548575</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.031934</v>
-      </c>
-      <c r="H12">
-        <v>0.095802</v>
-      </c>
-      <c r="I12">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="J12">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>2.767576666666667</v>
-      </c>
-      <c r="N12">
-        <v>8.30273</v>
-      </c>
-      <c r="O12">
-        <v>0.2175407589083977</v>
-      </c>
-      <c r="P12">
-        <v>0.2175407589083977</v>
-      </c>
-      <c r="Q12">
-        <v>0.08837979327333333</v>
-      </c>
-      <c r="R12">
-        <v>0.7954181394600001</v>
-      </c>
-      <c r="S12">
-        <v>0.02978743687567865</v>
-      </c>
-      <c r="T12">
-        <v>0.02978743687567865</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.031934</v>
-      </c>
-      <c r="H13">
-        <v>0.095802</v>
-      </c>
-      <c r="I13">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="J13">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.837969333333334</v>
-      </c>
-      <c r="N13">
-        <v>5.513908000000001</v>
-      </c>
-      <c r="O13">
-        <v>0.1444705212467569</v>
-      </c>
-      <c r="P13">
-        <v>0.1444705212467569</v>
-      </c>
-      <c r="Q13">
-        <v>0.05869371269066667</v>
-      </c>
-      <c r="R13">
-        <v>0.5282434142160001</v>
-      </c>
-      <c r="S13">
-        <v>0.01978207005265732</v>
-      </c>
-      <c r="T13">
-        <v>0.01978207005265733</v>
+        <v>0.0174025366271722</v>
       </c>
     </row>
   </sheetData>
